--- a/notes/verbs_with_cases.xlsx
+++ b/notes/verbs_with_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Legion 7\Documents\Russian\repository\ruski-b1\notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blargian\Documents\Russian\ruski-b1\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{971C3086-65DF-41E9-BFE0-565E9AAAA164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71FDEB5-315A-4024-A21A-DD8970B609AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{1F7309AF-8AFE-4407-9FAA-86C6440D84CF}"/>
+    <workbookView xWindow="3380" yWindow="780" windowWidth="19200" windowHeight="11170" xr2:uid="{1F7309AF-8AFE-4407-9FAA-86C6440D84CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Внительный" sheetId="1" r:id="rId1"/>
@@ -24,21 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>глагол</t>
   </si>
@@ -92,6 +83,15 @@
   </si>
   <si>
     <t>Я должен подгото́виться к шко́ле.</t>
+  </si>
+  <si>
+    <t>покупать / купить</t>
+  </si>
+  <si>
+    <t xml:space="preserve">что? Кого? </t>
+  </si>
+  <si>
+    <t>Я ду́маю, что я купи́л бы хоро́шую маши́ну.</t>
   </si>
 </sst>
 </file>
@@ -443,13 +443,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D81D8C-FE9A-4A6B-ABAD-CDCA13628896}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -462,6 +467,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -471,7 +487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D9FFAC-0714-4DFA-B2E1-196D2F910583}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/notes/verbs_with_cases.xlsx
+++ b/notes/verbs_with_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blargian\Documents\Russian\ruski-b1\notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaun\OneDrive\Documents\Russian\ruski-b1\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71FDEB5-315A-4024-A21A-DD8970B609AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626F2619-DC35-45BC-9921-16827953D502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="780" windowWidth="19200" windowHeight="11170" xr2:uid="{1F7309AF-8AFE-4407-9FAA-86C6440D84CF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{1F7309AF-8AFE-4407-9FAA-86C6440D84CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Внительный" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>глагол</t>
   </si>
@@ -92,14 +92,37 @@
   </si>
   <si>
     <t>Я ду́маю, что я купи́л бы хоро́шую маши́ну.</t>
+  </si>
+  <si>
+    <t>изменять / изменить</t>
+  </si>
+  <si>
+    <t>Verb</t>
+  </si>
+  <si>
+    <t>to wish (to someone)</t>
+  </si>
+  <si>
+    <t>to prepare for something</t>
+  </si>
+  <si>
+    <t>to cheat on someone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -127,8 +150,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,7 +469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D81D8C-FE9A-4A6B-ABAD-CDCA13628896}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -485,60 +509,78 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D9FFAC-0714-4DFA-B2E1-196D2F910583}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/notes/verbs_with_cases.xlsx
+++ b/notes/verbs_with_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaun\OneDrive\Documents\Russian\ruski-b1\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626F2619-DC35-45BC-9921-16827953D502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F878F66-D476-40C9-8BFF-81C864FB8039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{1F7309AF-8AFE-4407-9FAA-86C6440D84CF}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>глагол</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>to cheat on someone</t>
+  </si>
+  <si>
+    <t>to take revenge</t>
+  </si>
+  <si>
+    <t>мстить / отомстить</t>
+  </si>
+  <si>
+    <t>кому-чему</t>
   </si>
 </sst>
 </file>
@@ -509,10 +518,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D9FFAC-0714-4DFA-B2E1-196D2F910583}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -581,6 +590,20 @@
       </c>
       <c r="B6" t="s">
         <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
